--- a/evidences/Open FDA Prototype - Release Backlog.xlsx
+++ b/evidences/Open FDA Prototype - Release Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchung\Google Drive\2015 Proposals\20150626 GSA Agile Delivery\Proposal\eBuy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ebuy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="143">
   <si>
     <t>Summary</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Perform Section 508 Compliance Scan</t>
+  </si>
+  <si>
+    <t>Add Jacoco to Jenkins</t>
   </si>
 </sst>
 </file>
@@ -592,13 +595,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -649,13 +652,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -968,11 +971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FP98"/>
+  <dimension ref="A1:FP99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,32 +1465,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
+    <row r="16" spans="1:172" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>47</v>
@@ -1496,7 +1499,7 @@
         <v>110</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>58</v>
@@ -1504,10 +1507,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>47</v>
@@ -1524,10 +1527,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>47</v>
@@ -1544,10 +1547,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>47</v>
@@ -1556,7 +1559,7 @@
         <v>110</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>58</v>
@@ -1564,10 +1567,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>47</v>
@@ -1576,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>58</v>
@@ -1584,22 +1587,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>955</v>
+        <v>999</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>58</v>
@@ -1607,19 +1607,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>50</v>
@@ -1642,7 +1642,10 @@
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>58</v>
@@ -1650,19 +1653,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>58</v>
@@ -1670,22 +1673,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>58</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>58</v>
@@ -1716,22 +1716,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>942</v>
+        <v>1003</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>58</v>
@@ -1739,22 +1739,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>58</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>128</v>
@@ -1777,7 +1777,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>58</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>128</v>
@@ -1800,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>58</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>128</v>
@@ -1829,15 +1829,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>7</v>
@@ -1846,199 +1846,199 @@
         <v>37</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>948</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="I37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>962</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>979</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>982</v>
+        <v>1015</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>15</v>
@@ -2047,35 +2047,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:172" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>48</v>
@@ -2086,19 +2086,19 @@
       <c r="G44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I44" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>48</v>
@@ -2107,70 +2107,68 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>988</v>
+        <v>958</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>963</v>
+        <v>988</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+        <v>81</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>48</v>
       </c>
@@ -2178,216 +2176,218 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-      <c r="AH48" s="1"/>
-      <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
-      <c r="AK48" s="1"/>
-      <c r="AL48" s="1"/>
-      <c r="AM48" s="1"/>
-      <c r="AN48" s="1"/>
-      <c r="AO48" s="1"/>
-      <c r="AP48" s="1"/>
-      <c r="AQ48" s="1"/>
-      <c r="AR48" s="1"/>
-      <c r="AS48" s="1"/>
-      <c r="AT48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="1"/>
-      <c r="AW48" s="1"/>
-      <c r="AX48" s="1"/>
-      <c r="AY48" s="1"/>
-      <c r="AZ48" s="1"/>
-      <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1"/>
-      <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
-      <c r="BQ48" s="1"/>
-      <c r="BR48" s="1"/>
-      <c r="BS48" s="1"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="1"/>
-      <c r="BV48" s="1"/>
-      <c r="BW48" s="1"/>
-      <c r="BX48" s="1"/>
-      <c r="BY48" s="1"/>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-      <c r="CD48" s="1"/>
-      <c r="CE48" s="1"/>
-      <c r="CF48" s="1"/>
-      <c r="CG48" s="1"/>
-      <c r="CH48" s="1"/>
-      <c r="CI48" s="1"/>
-      <c r="CJ48" s="1"/>
-      <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
-      <c r="CN48" s="1"/>
-      <c r="CO48" s="1"/>
-      <c r="CP48" s="1"/>
-      <c r="CQ48" s="1"/>
-      <c r="CR48" s="1"/>
-      <c r="CS48" s="1"/>
-      <c r="CT48" s="1"/>
-      <c r="CU48" s="1"/>
-      <c r="CV48" s="1"/>
-      <c r="CW48" s="1"/>
-      <c r="CX48" s="1"/>
-      <c r="CY48" s="1"/>
-      <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
-      <c r="DC48" s="1"/>
-      <c r="DD48" s="1"/>
-      <c r="DE48" s="1"/>
-      <c r="DF48" s="1"/>
-      <c r="DG48" s="1"/>
-      <c r="DH48" s="1"/>
-      <c r="DI48" s="1"/>
-      <c r="DJ48" s="1"/>
-      <c r="DK48" s="1"/>
-      <c r="DL48" s="1"/>
-      <c r="DM48" s="1"/>
-      <c r="DN48" s="1"/>
-      <c r="DO48" s="1"/>
-      <c r="DP48" s="1"/>
-      <c r="DQ48" s="1"/>
-      <c r="DR48" s="1"/>
-      <c r="DS48" s="1"/>
-      <c r="DT48" s="1"/>
-      <c r="DU48" s="1"/>
-      <c r="DV48" s="1"/>
-      <c r="DW48" s="1"/>
-      <c r="DX48" s="1"/>
-      <c r="DY48" s="1"/>
-      <c r="DZ48" s="1"/>
-      <c r="EA48" s="1"/>
-      <c r="EB48" s="1"/>
-      <c r="EC48" s="1"/>
-      <c r="ED48" s="1"/>
-      <c r="EE48" s="1"/>
-      <c r="EF48" s="1"/>
-      <c r="EG48" s="1"/>
-      <c r="EH48" s="1"/>
-      <c r="EI48" s="1"/>
-      <c r="EJ48" s="1"/>
-      <c r="EK48" s="1"/>
-      <c r="EL48" s="1"/>
-      <c r="EM48" s="1"/>
-      <c r="EN48" s="1"/>
-      <c r="EO48" s="1"/>
-      <c r="EP48" s="1"/>
-      <c r="EQ48" s="1"/>
-      <c r="ER48" s="1"/>
-      <c r="ES48" s="1"/>
-      <c r="ET48" s="1"/>
-      <c r="EU48" s="1"/>
-      <c r="EV48" s="1"/>
-      <c r="EW48" s="1"/>
-      <c r="EX48" s="1"/>
-      <c r="EY48" s="1"/>
-      <c r="EZ48" s="1"/>
-      <c r="FA48" s="1"/>
-      <c r="FB48" s="1"/>
-      <c r="FC48" s="1"/>
-      <c r="FD48" s="1"/>
-      <c r="FE48" s="1"/>
-      <c r="FF48" s="1"/>
-      <c r="FG48" s="1"/>
-      <c r="FH48" s="1"/>
-      <c r="FI48" s="1"/>
-      <c r="FJ48" s="1"/>
-      <c r="FK48" s="1"/>
-      <c r="FL48" s="1"/>
-      <c r="FM48" s="1"/>
-      <c r="FN48" s="1"/>
-      <c r="FO48" s="1"/>
-      <c r="FP48" s="1"/>
-    </row>
-    <row r="49" spans="1:172" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
+      <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
+      <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
+      <c r="DE49" s="1"/>
+      <c r="DF49" s="1"/>
+      <c r="DG49" s="1"/>
+      <c r="DH49" s="1"/>
+      <c r="DI49" s="1"/>
+      <c r="DJ49" s="1"/>
+      <c r="DK49" s="1"/>
+      <c r="DL49" s="1"/>
+      <c r="DM49" s="1"/>
+      <c r="DN49" s="1"/>
+      <c r="DO49" s="1"/>
+      <c r="DP49" s="1"/>
+      <c r="DQ49" s="1"/>
+      <c r="DR49" s="1"/>
+      <c r="DS49" s="1"/>
+      <c r="DT49" s="1"/>
+      <c r="DU49" s="1"/>
+      <c r="DV49" s="1"/>
+      <c r="DW49" s="1"/>
+      <c r="DX49" s="1"/>
+      <c r="DY49" s="1"/>
+      <c r="DZ49" s="1"/>
+      <c r="EA49" s="1"/>
+      <c r="EB49" s="1"/>
+      <c r="EC49" s="1"/>
+      <c r="ED49" s="1"/>
+      <c r="EE49" s="1"/>
+      <c r="EF49" s="1"/>
+      <c r="EG49" s="1"/>
+      <c r="EH49" s="1"/>
+      <c r="EI49" s="1"/>
+      <c r="EJ49" s="1"/>
+      <c r="EK49" s="1"/>
+      <c r="EL49" s="1"/>
+      <c r="EM49" s="1"/>
+      <c r="EN49" s="1"/>
+      <c r="EO49" s="1"/>
+      <c r="EP49" s="1"/>
+      <c r="EQ49" s="1"/>
+      <c r="ER49" s="1"/>
+      <c r="ES49" s="1"/>
+      <c r="ET49" s="1"/>
+      <c r="EU49" s="1"/>
+      <c r="EV49" s="1"/>
+      <c r="EW49" s="1"/>
+      <c r="EX49" s="1"/>
+      <c r="EY49" s="1"/>
+      <c r="EZ49" s="1"/>
+      <c r="FA49" s="1"/>
+      <c r="FB49" s="1"/>
+      <c r="FC49" s="1"/>
+      <c r="FD49" s="1"/>
+      <c r="FE49" s="1"/>
+      <c r="FF49" s="1"/>
+      <c r="FG49" s="1"/>
+      <c r="FH49" s="1"/>
+      <c r="FI49" s="1"/>
+      <c r="FJ49" s="1"/>
+      <c r="FK49" s="1"/>
+      <c r="FL49" s="1"/>
+      <c r="FM49" s="1"/>
+      <c r="FN49" s="1"/>
+      <c r="FO49" s="1"/>
+      <c r="FP49" s="1"/>
     </row>
     <row r="50" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>12</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="51" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>128</v>
@@ -2410,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>12</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="52" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>128</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>12</v>
@@ -2444,22 +2444,22 @@
     </row>
     <row r="53" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>58</v>
@@ -2467,22 +2467,22 @@
     </row>
     <row r="54" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>58</v>
@@ -2490,33 +2490,34 @@
     </row>
     <row r="55" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+        <v>82</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>48</v>
       </c>
@@ -2526,242 +2527,244 @@
       <c r="G56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>968</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-      <c r="AM56" s="1"/>
-      <c r="AN56" s="1"/>
-      <c r="AO56" s="1"/>
-      <c r="AP56" s="1"/>
-      <c r="AQ56" s="1"/>
-      <c r="AR56" s="1"/>
-      <c r="AS56" s="1"/>
-      <c r="AT56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="1"/>
-      <c r="AW56" s="1"/>
-      <c r="AX56" s="1"/>
-      <c r="AY56" s="1"/>
-      <c r="AZ56" s="1"/>
-      <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="1"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-      <c r="BV56" s="1"/>
-      <c r="BW56" s="1"/>
-      <c r="BX56" s="1"/>
-      <c r="BY56" s="1"/>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
-      <c r="CN56" s="1"/>
-      <c r="CO56" s="1"/>
-      <c r="CP56" s="1"/>
-      <c r="CQ56" s="1"/>
-      <c r="CR56" s="1"/>
-      <c r="CS56" s="1"/>
-      <c r="CT56" s="1"/>
-      <c r="CU56" s="1"/>
-      <c r="CV56" s="1"/>
-      <c r="CW56" s="1"/>
-      <c r="CX56" s="1"/>
-      <c r="CY56" s="1"/>
-      <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
-      <c r="DC56" s="1"/>
-      <c r="DD56" s="1"/>
-      <c r="DE56" s="1"/>
-      <c r="DF56" s="1"/>
-      <c r="DG56" s="1"/>
-      <c r="DH56" s="1"/>
-      <c r="DI56" s="1"/>
-      <c r="DJ56" s="1"/>
-      <c r="DK56" s="1"/>
-      <c r="DL56" s="1"/>
-      <c r="DM56" s="1"/>
-      <c r="DN56" s="1"/>
-      <c r="DO56" s="1"/>
-      <c r="DP56" s="1"/>
-      <c r="DQ56" s="1"/>
-      <c r="DR56" s="1"/>
-      <c r="DS56" s="1"/>
-      <c r="DT56" s="1"/>
-      <c r="DU56" s="1"/>
-      <c r="DV56" s="1"/>
-      <c r="DW56" s="1"/>
-      <c r="DX56" s="1"/>
-      <c r="DY56" s="1"/>
-      <c r="DZ56" s="1"/>
-      <c r="EA56" s="1"/>
-      <c r="EB56" s="1"/>
-      <c r="EC56" s="1"/>
-      <c r="ED56" s="1"/>
-      <c r="EE56" s="1"/>
-      <c r="EF56" s="1"/>
-      <c r="EG56" s="1"/>
-      <c r="EH56" s="1"/>
-      <c r="EI56" s="1"/>
-      <c r="EJ56" s="1"/>
-      <c r="EK56" s="1"/>
-      <c r="EL56" s="1"/>
-      <c r="EM56" s="1"/>
-      <c r="EN56" s="1"/>
-      <c r="EO56" s="1"/>
-      <c r="EP56" s="1"/>
-      <c r="EQ56" s="1"/>
-      <c r="ER56" s="1"/>
-      <c r="ES56" s="1"/>
-      <c r="ET56" s="1"/>
-      <c r="EU56" s="1"/>
-      <c r="EV56" s="1"/>
-      <c r="EW56" s="1"/>
-      <c r="EX56" s="1"/>
-      <c r="EY56" s="1"/>
-      <c r="EZ56" s="1"/>
-      <c r="FA56" s="1"/>
-      <c r="FB56" s="1"/>
-      <c r="FC56" s="1"/>
-      <c r="FD56" s="1"/>
-      <c r="FE56" s="1"/>
-      <c r="FF56" s="1"/>
-      <c r="FG56" s="1"/>
-      <c r="FH56" s="1"/>
-      <c r="FI56" s="1"/>
-      <c r="FJ56" s="1"/>
-      <c r="FK56" s="1"/>
-      <c r="FL56" s="1"/>
-      <c r="FM56" s="1"/>
-      <c r="FN56" s="1"/>
-      <c r="FO56" s="1"/>
-      <c r="FP56" s="1"/>
-    </row>
-    <row r="57" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="I57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1"/>
+      <c r="CP57" s="1"/>
+      <c r="CQ57" s="1"/>
+      <c r="CR57" s="1"/>
+      <c r="CS57" s="1"/>
+      <c r="CT57" s="1"/>
+      <c r="CU57" s="1"/>
+      <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="1"/>
+      <c r="DB57" s="1"/>
+      <c r="DC57" s="1"/>
+      <c r="DD57" s="1"/>
+      <c r="DE57" s="1"/>
+      <c r="DF57" s="1"/>
+      <c r="DG57" s="1"/>
+      <c r="DH57" s="1"/>
+      <c r="DI57" s="1"/>
+      <c r="DJ57" s="1"/>
+      <c r="DK57" s="1"/>
+      <c r="DL57" s="1"/>
+      <c r="DM57" s="1"/>
+      <c r="DN57" s="1"/>
+      <c r="DO57" s="1"/>
+      <c r="DP57" s="1"/>
+      <c r="DQ57" s="1"/>
+      <c r="DR57" s="1"/>
+      <c r="DS57" s="1"/>
+      <c r="DT57" s="1"/>
+      <c r="DU57" s="1"/>
+      <c r="DV57" s="1"/>
+      <c r="DW57" s="1"/>
+      <c r="DX57" s="1"/>
+      <c r="DY57" s="1"/>
+      <c r="DZ57" s="1"/>
+      <c r="EA57" s="1"/>
+      <c r="EB57" s="1"/>
+      <c r="EC57" s="1"/>
+      <c r="ED57" s="1"/>
+      <c r="EE57" s="1"/>
+      <c r="EF57" s="1"/>
+      <c r="EG57" s="1"/>
+      <c r="EH57" s="1"/>
+      <c r="EI57" s="1"/>
+      <c r="EJ57" s="1"/>
+      <c r="EK57" s="1"/>
+      <c r="EL57" s="1"/>
+      <c r="EM57" s="1"/>
+      <c r="EN57" s="1"/>
+      <c r="EO57" s="1"/>
+      <c r="EP57" s="1"/>
+      <c r="EQ57" s="1"/>
+      <c r="ER57" s="1"/>
+      <c r="ES57" s="1"/>
+      <c r="ET57" s="1"/>
+      <c r="EU57" s="1"/>
+      <c r="EV57" s="1"/>
+      <c r="EW57" s="1"/>
+      <c r="EX57" s="1"/>
+      <c r="EY57" s="1"/>
+      <c r="EZ57" s="1"/>
+      <c r="FA57" s="1"/>
+      <c r="FB57" s="1"/>
+      <c r="FC57" s="1"/>
+      <c r="FD57" s="1"/>
+      <c r="FE57" s="1"/>
+      <c r="FF57" s="1"/>
+      <c r="FG57" s="1"/>
+      <c r="FH57" s="1"/>
+      <c r="FI57" s="1"/>
+      <c r="FJ57" s="1"/>
+      <c r="FK57" s="1"/>
+      <c r="FL57" s="1"/>
+      <c r="FM57" s="1"/>
+      <c r="FN57" s="1"/>
+      <c r="FO57" s="1"/>
+      <c r="FP57" s="1"/>
+    </row>
+    <row r="58" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>978</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:172" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="I58" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:172" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>975</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>949</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>58</v>
@@ -2769,45 +2772,42 @@
     </row>
     <row r="60" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>989</v>
+        <v>949</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>58</v>
@@ -2815,22 +2815,22 @@
     </row>
     <row r="62" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>58</v>
@@ -2838,19 +2838,19 @@
     </row>
     <row r="63" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>12</v>
@@ -2859,58 +2859,58 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:172" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>983</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>99</v>
+        <v>1004</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:172" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>983</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2923,54 +2923,54 @@
       <c r="G66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>986</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>961</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>58</v>
@@ -2978,19 +2978,22 @@
     </row>
     <row r="69" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>58</v>
@@ -2998,222 +3001,56 @@
     </row>
     <row r="70" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
+        <v>990</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>1016</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-      <c r="AH71" s="1"/>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
-      <c r="AK71" s="1"/>
-      <c r="AL71" s="1"/>
-      <c r="AM71" s="1"/>
-      <c r="AN71" s="1"/>
-      <c r="AO71" s="1"/>
-      <c r="AP71" s="1"/>
-      <c r="AQ71" s="1"/>
-      <c r="AR71" s="1"/>
-      <c r="AS71" s="1"/>
-      <c r="AT71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="1"/>
-      <c r="AW71" s="1"/>
-      <c r="AX71" s="1"/>
-      <c r="AY71" s="1"/>
-      <c r="AZ71" s="1"/>
-      <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
-      <c r="BC71" s="1"/>
-      <c r="BD71" s="1"/>
-      <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
-      <c r="BG71" s="1"/>
-      <c r="BH71" s="1"/>
-      <c r="BI71" s="1"/>
-      <c r="BJ71" s="1"/>
-      <c r="BK71" s="1"/>
-      <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="1"/>
-      <c r="BQ71" s="1"/>
-      <c r="BR71" s="1"/>
-      <c r="BS71" s="1"/>
-      <c r="BT71" s="1"/>
-      <c r="BU71" s="1"/>
-      <c r="BV71" s="1"/>
-      <c r="BW71" s="1"/>
-      <c r="BX71" s="1"/>
-      <c r="BY71" s="1"/>
-      <c r="BZ71" s="1"/>
-      <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
-      <c r="CC71" s="1"/>
-      <c r="CD71" s="1"/>
-      <c r="CE71" s="1"/>
-      <c r="CF71" s="1"/>
-      <c r="CG71" s="1"/>
-      <c r="CH71" s="1"/>
-      <c r="CI71" s="1"/>
-      <c r="CJ71" s="1"/>
-      <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
-      <c r="CN71" s="1"/>
-      <c r="CO71" s="1"/>
-      <c r="CP71" s="1"/>
-      <c r="CQ71" s="1"/>
-      <c r="CR71" s="1"/>
-      <c r="CS71" s="1"/>
-      <c r="CT71" s="1"/>
-      <c r="CU71" s="1"/>
-      <c r="CV71" s="1"/>
-      <c r="CW71" s="1"/>
-      <c r="CX71" s="1"/>
-      <c r="CY71" s="1"/>
-      <c r="CZ71" s="1"/>
-      <c r="DA71" s="1"/>
-      <c r="DB71" s="1"/>
-      <c r="DC71" s="1"/>
-      <c r="DD71" s="1"/>
-      <c r="DE71" s="1"/>
-      <c r="DF71" s="1"/>
-      <c r="DG71" s="1"/>
-      <c r="DH71" s="1"/>
-      <c r="DI71" s="1"/>
-      <c r="DJ71" s="1"/>
-      <c r="DK71" s="1"/>
-      <c r="DL71" s="1"/>
-      <c r="DM71" s="1"/>
-      <c r="DN71" s="1"/>
-      <c r="DO71" s="1"/>
-      <c r="DP71" s="1"/>
-      <c r="DQ71" s="1"/>
-      <c r="DR71" s="1"/>
-      <c r="DS71" s="1"/>
-      <c r="DT71" s="1"/>
-      <c r="DU71" s="1"/>
-      <c r="DV71" s="1"/>
-      <c r="DW71" s="1"/>
-      <c r="DX71" s="1"/>
-      <c r="DY71" s="1"/>
-      <c r="DZ71" s="1"/>
-      <c r="EA71" s="1"/>
-      <c r="EB71" s="1"/>
-      <c r="EC71" s="1"/>
-      <c r="ED71" s="1"/>
-      <c r="EE71" s="1"/>
-      <c r="EF71" s="1"/>
-      <c r="EG71" s="1"/>
-      <c r="EH71" s="1"/>
-      <c r="EI71" s="1"/>
-      <c r="EJ71" s="1"/>
-      <c r="EK71" s="1"/>
-      <c r="EL71" s="1"/>
-      <c r="EM71" s="1"/>
-      <c r="EN71" s="1"/>
-      <c r="EO71" s="1"/>
-      <c r="EP71" s="1"/>
-      <c r="EQ71" s="1"/>
-      <c r="ER71" s="1"/>
-      <c r="ES71" s="1"/>
-      <c r="ET71" s="1"/>
-      <c r="EU71" s="1"/>
-      <c r="EV71" s="1"/>
-      <c r="EW71" s="1"/>
-      <c r="EX71" s="1"/>
-      <c r="EY71" s="1"/>
-      <c r="EZ71" s="1"/>
-      <c r="FA71" s="1"/>
-      <c r="FB71" s="1"/>
-      <c r="FC71" s="1"/>
-      <c r="FD71" s="1"/>
-      <c r="FE71" s="1"/>
-      <c r="FF71" s="1"/>
-      <c r="FG71" s="1"/>
-      <c r="FH71" s="1"/>
-      <c r="FI71" s="1"/>
-      <c r="FJ71" s="1"/>
-      <c r="FK71" s="1"/>
-      <c r="FL71" s="1"/>
-      <c r="FM71" s="1"/>
-      <c r="FN71" s="1"/>
-      <c r="FO71" s="1"/>
-      <c r="FP71" s="1"/>
-    </row>
-    <row r="72" spans="1:172" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:172" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>47</v>
       </c>
@@ -3221,21 +3058,184 @@
         <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="1"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="1"/>
+      <c r="CZ72" s="1"/>
+      <c r="DA72" s="1"/>
+      <c r="DB72" s="1"/>
+      <c r="DC72" s="1"/>
+      <c r="DD72" s="1"/>
+      <c r="DE72" s="1"/>
+      <c r="DF72" s="1"/>
+      <c r="DG72" s="1"/>
+      <c r="DH72" s="1"/>
+      <c r="DI72" s="1"/>
+      <c r="DJ72" s="1"/>
+      <c r="DK72" s="1"/>
+      <c r="DL72" s="1"/>
+      <c r="DM72" s="1"/>
+      <c r="DN72" s="1"/>
+      <c r="DO72" s="1"/>
+      <c r="DP72" s="1"/>
+      <c r="DQ72" s="1"/>
+      <c r="DR72" s="1"/>
+      <c r="DS72" s="1"/>
+      <c r="DT72" s="1"/>
+      <c r="DU72" s="1"/>
+      <c r="DV72" s="1"/>
+      <c r="DW72" s="1"/>
+      <c r="DX72" s="1"/>
+      <c r="DY72" s="1"/>
+      <c r="DZ72" s="1"/>
+      <c r="EA72" s="1"/>
+      <c r="EB72" s="1"/>
+      <c r="EC72" s="1"/>
+      <c r="ED72" s="1"/>
+      <c r="EE72" s="1"/>
+      <c r="EF72" s="1"/>
+      <c r="EG72" s="1"/>
+      <c r="EH72" s="1"/>
+      <c r="EI72" s="1"/>
+      <c r="EJ72" s="1"/>
+      <c r="EK72" s="1"/>
+      <c r="EL72" s="1"/>
+      <c r="EM72" s="1"/>
+      <c r="EN72" s="1"/>
+      <c r="EO72" s="1"/>
+      <c r="EP72" s="1"/>
+      <c r="EQ72" s="1"/>
+      <c r="ER72" s="1"/>
+      <c r="ES72" s="1"/>
+      <c r="ET72" s="1"/>
+      <c r="EU72" s="1"/>
+      <c r="EV72" s="1"/>
+      <c r="EW72" s="1"/>
+      <c r="EX72" s="1"/>
+      <c r="EY72" s="1"/>
+      <c r="EZ72" s="1"/>
+      <c r="FA72" s="1"/>
+      <c r="FB72" s="1"/>
+      <c r="FC72" s="1"/>
+      <c r="FD72" s="1"/>
+      <c r="FE72" s="1"/>
+      <c r="FF72" s="1"/>
+      <c r="FG72" s="1"/>
+      <c r="FH72" s="1"/>
+      <c r="FI72" s="1"/>
+      <c r="FJ72" s="1"/>
+      <c r="FK72" s="1"/>
+      <c r="FL72" s="1"/>
+      <c r="FM72" s="1"/>
+      <c r="FN72" s="1"/>
+      <c r="FO72" s="1"/>
+      <c r="FP72" s="1"/>
     </row>
     <row r="73" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>47</v>
@@ -3244,10 +3244,10 @@
         <v>22</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>58</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="74" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>47</v>
@@ -3267,7 +3267,7 @@
         <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>26</v>
@@ -3276,18 +3276,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:172" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>47</v>
@@ -3296,30 +3290,36 @@
         <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:172" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:172" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>58</v>
@@ -3327,19 +3327,19 @@
     </row>
     <row r="77" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>12</v>
@@ -3350,19 +3350,22 @@
     </row>
     <row r="78" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>58</v>
@@ -3370,22 +3373,19 @@
     </row>
     <row r="79" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>954</v>
+        <v>1013</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>58</v>
@@ -3393,22 +3393,22 @@
     </row>
     <row r="80" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>58</v>
@@ -3416,19 +3416,19 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>1009</v>
+        <v>965</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>12</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>47</v>
@@ -3451,10 +3451,10 @@
         <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>58</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>47</v>
@@ -3477,7 +3477,7 @@
         <v>18</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>58</v>
@@ -3485,22 +3485,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>1033</v>
+        <v>992</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>58</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>47</v>
@@ -3520,10 +3520,10 @@
         <v>29</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>58</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>1018</v>
+        <v>1034</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>47</v>
@@ -3543,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>12</v>
@@ -3553,116 +3553,116 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
         <v>1028</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7" t="s">
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="I88" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>1019</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="I89" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
         <v>1031</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>12</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>47</v>
@@ -3685,7 +3685,7 @@
         <v>29</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>12</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>47</v>
@@ -3708,7 +3708,7 @@
         <v>29</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>12</v>
@@ -3719,19 +3719,19 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>12</v>
@@ -3742,19 +3742,19 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>12</v>
@@ -3763,18 +3763,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>47</v>
@@ -3783,57 +3777,86 @@
         <v>29</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="I97" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
         <v>1032</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="I98" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
         <v>1022</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>58</v>
       </c>
     </row>
